--- a/mbs-perturbation/chain/knn/smote/chain-knn-smote-results.xlsx
+++ b/mbs-perturbation/chain/knn/smote/chain-knn-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8910505836575876</v>
+        <v>0.8914728682170543</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9956521739130435</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9404517453798769</v>
+        <v>0.9426229508196722</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9508563899868248</v>
+        <v>0.9399774138904574</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8550185873605948</v>
+        <v>0.9352226720647774</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9956709956709957</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9199999999999999</v>
+        <v>0.9665271966527197</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9461697722567288</v>
+        <v>0.9745812158855637</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8832684824902723</v>
+        <v>0.9015748031496063</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9869565217391304</v>
+        <v>0.9956521739130435</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9322381930184805</v>
+        <v>0.9462809917355371</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9593005671077505</v>
+        <v>0.9605954631379963</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.756578947368421</v>
+        <v>0.9913419913419913</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.9956521739130435</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8614232209737828</v>
+        <v>0.9934924078091107</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8856521739130434</v>
+        <v>0.9975519848771266</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9621848739495799</v>
+        <v>0.9871244635193133</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9956521739130435</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9786324786324787</v>
+        <v>0.9935205183585313</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9928544423440454</v>
+        <v>0.9953969754253308</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8696202949652913</v>
+        <v>0.9413473596585487</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9947863730472426</v>
+        <v>0.9982608695652175</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9265491276009238</v>
+        <v>0.9684888130751143</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9469666691216785</v>
+        <v>0.9736206106432949</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/chain/knn/smote/chain-knn-smote-results.xlsx
+++ b/mbs-perturbation/chain/knn/smote/chain-knn-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8914728682170543</v>
+        <v>0.6491803278688525</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9426229508196722</v>
+        <v>0.7872763419483102</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9399774138904574</v>
+        <v>0.7385215794306703</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9352226720647774</v>
+        <v>0.9563106796116505</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9949494949494949</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9665271966527197</v>
+        <v>0.9752475247524751</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9745812158855637</v>
+        <v>0.9802061014182225</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9015748031496063</v>
+        <v>0.9375</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9956521739130435</v>
+        <v>0.9848484848484849</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9462809917355371</v>
+        <v>0.9605911330049262</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9605954631379963</v>
+        <v>0.978178247117641</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9913419913419913</v>
+        <v>0.9899497487437185</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9956521739130435</v>
+        <v>0.9949494949494949</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9934924078091107</v>
+        <v>0.9924433249370276</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9975519848771266</v>
+        <v>0.9998974516741014</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9871244635193133</v>
+        <v>0.9948186528497409</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.9746192893401016</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9935205183585313</v>
+        <v>0.9846153846153846</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9953969754253308</v>
+        <v>0.9944880274829513</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9413473596585487</v>
+        <v>0.9055518818147925</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9982608695652175</v>
+        <v>0.9898733528175152</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9684888130751143</v>
+        <v>0.9400347418516247</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9736206106432949</v>
+        <v>0.9382582814247173</v>
       </c>
     </row>
   </sheetData>
